--- a/Codes/Excels/2065_Test Data_Scenario 2.xlsx
+++ b/Codes/Excels/2065_Test Data_Scenario 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exavalu2\OneDrive - exavalu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://exavalu-my.sharepoint.com/personal/pulak_das_exavalu_com/Documents/Desktop/Test Data Fina/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B86487-03F9-456F-9735-E4DF80414898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{DC6E0177-D3A4-4A6F-82B7-49AF348F2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FABF6425-325E-41A0-AE21-FAD3B2A99B87}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>SetUpTime</t>
   </si>
@@ -138,13 +138,19 @@
     <t>OH</t>
   </si>
   <si>
-    <t>EXA</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>LN</t>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>LN1</t>
+  </si>
+  <si>
+    <t>EXAV_Q</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>EXAV_Q.com</t>
   </si>
 </sst>
 </file>
@@ -200,6 +206,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,8 +491,9 @@
     <col min="7" max="7" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
@@ -517,49 +528,49 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="58" x14ac:dyDescent="0.35">
@@ -585,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -594,49 +605,49 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>44094</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V2">
-        <v>8</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
       <c r="X2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
